--- a/asscess log/result_delta_2.xlsx
+++ b/asscess log/result_delta_2.xlsx
@@ -16,69 +16,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>new-console.ng.bluemix.net/events/</t>
-  </si>
-  <si>
-    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/cfServices</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/news/</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/notifications</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/businessmetrics/trendingitems/</t>
-  </si>
-  <si>
-    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/cfApps</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/alertcon</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/casefiles/shared</t>
-  </si>
-  <si>
-    <t>ace-dashboard-production-20160819-142035.ng.bluemix.net/socket.io/</t>
-  </si>
-  <si>
-    <t>natural-language-classifier-toolkit.ng.bluemix.net/socket.io/</t>
-  </si>
-  <si>
-    <t>ace-dashboard-test-20160819-141650.ng.bluemix.net/dashboard/api/model</t>
-  </si>
-  <si>
-    <t>ace-events-production-20160816-120854.ng.bluemix.net/socket.io/</t>
-  </si>
-  <si>
-    <t>new-console.ng.bluemix.net/dashboard/api/model</t>
-  </si>
-  <si>
-    <t>ace-abstraction-test-20160819-141650.ng.bluemix.net/model/v1/dashboard</t>
-  </si>
-  <si>
-    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/</t>
-  </si>
-  <si>
-    <t>ace-events-production-20160819-142035.ng.bluemix.net/socket.io/</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/taxii</t>
-  </si>
-  <si>
-    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/cfServices/tags</t>
-  </si>
-  <si>
-    <t>api.xforce.ibmcloud.com/socket.io/</t>
-  </si>
-  <si>
-    <t>ace-dashboard-test-20160819-141650.ng.bluemix.net/dashboard/api/cf-apps-info</t>
-  </si>
-  <si>
-    <t>new-console.ng.bluemix.net/dashboard/api/cf-apps-info</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>api.ng.bluemix.net/v2/app</t>
+  </si>
+  <si>
+    <t>ace-events-production-20160819-142035.ng.bluemix.net/socket.io/;GET</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/taxii;POST</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/notifications;OPTIONS</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/socket.io/;GET</t>
+  </si>
+  <si>
+    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/cfServices;GET</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/casefiles/shared;GET</t>
+  </si>
+  <si>
+    <t>ace-abstraction-test-20160819-141650.ng.bluemix.net/model/v1/dashboard;GET</t>
+  </si>
+  <si>
+    <t>ace-events-production-20160816-120854.ng.bluemix.net/socket.io/;GET</t>
+  </si>
+  <si>
+    <t>ace-dashboard-test-20160819-141650.ng.bluemix.net/dashboard/api/model;GET</t>
+  </si>
+  <si>
+    <t>ace-dashboard-test-20160819-141650.ng.bluemix.net/dashboard/api/cf-apps-info;GET</t>
+  </si>
+  <si>
+    <t>new-console.ng.bluemix.net/dashboard/api/model;GET</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/casefiles/shared;OPTIONS</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/businessmetrics/trendingitems/;OPTIONS</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/news/;OPTIONS</t>
+  </si>
+  <si>
+    <t>api.xforce.ibmcloud.com/alertcon;OPTIONS</t>
+  </si>
+  <si>
+    <t>new-console.ng.bluemix.net/dashboard/api/cf-apps-info;GET</t>
+  </si>
+  <si>
+    <t>new-console.ng.bluemix.net/events/;GET</t>
+  </si>
+  <si>
+    <t>natural-language-classifier-toolkit.ng.bluemix.net/socket.io/;GET</t>
+  </si>
+  <si>
+    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/;GET</t>
+  </si>
+  <si>
+    <t>ace-dashboard-production-20160819-142035.ng.bluemix.net/socket.io/;GET</t>
+  </si>
+  <si>
+    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/cfServices/tags;GET</t>
+  </si>
+  <si>
+    <t>ace-events-test-20160819-141650.ng.bluemix.net/events/cfApps;GET</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>1702.5728077</v>
+        <v>4580.983762398001</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -453,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>430.50849059</v>
+        <v>402.2163051299999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -461,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.380949764</v>
+        <v>0.027755527</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -477,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.965506843</v>
+        <v>0.03241859</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -485,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>213.115511618</v>
+        <v>430.50849059</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -493,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.510754934</v>
+        <v>0.476092332</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -501,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.528476488</v>
+        <v>240.162533538</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -509,7 +515,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>50.314293318</v>
+        <v>27.002934766</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -517,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>51.740178498</v>
+        <v>60.120237899</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -525,7 +531,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>60.120237899</v>
+        <v>0.207473998</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -533,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>54.017122862</v>
+        <v>60.212549849</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -541,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>60.212549849</v>
+        <v>0.161810585</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -549,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>240.162533538</v>
+        <v>2.65465338</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -557,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>956.456631621</v>
+        <v>4.380949764</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -565,7 +571,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>724.1499282509999</v>
+        <v>1.22777124</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -573,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.027755527</v>
+        <v>1.296239171</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -581,7 +587,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>974.497534827</v>
+        <v>1702.5728077</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -589,7 +595,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03241859</v>
+        <v>25.865315616</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -597,7 +603,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.207473998</v>
+        <v>956.456631621</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -605,7 +611,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1.296239171</v>
+        <v>25.151174662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>974.497534827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>213.115511618</v>
       </c>
     </row>
   </sheetData>
@@ -619,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -640,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -648,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -664,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -680,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -688,7 +710,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -696,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -704,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -720,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -728,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -736,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -744,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -752,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -768,7 +790,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -776,7 +798,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -784,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -793,6 +815,22 @@
       </c>
       <c r="B21" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
